--- a/biology/Botanique/Richard_Bradley_(botaniste)/Richard_Bradley_(botaniste).xlsx
+++ b/biology/Botanique/Richard_Bradley_(botaniste)/Richard_Bradley_(botaniste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Richard Bradley est un botaniste et un naturaliste britannique, né en 1688 et mort le 5 novembre 1732 à Cambridge.
 </t>
@@ -513,9 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse et formation
-Carrière professionnelle
-Bradley devient professeur de botanique à l’université de Cambridge en 1724 puis donne des cours de matière médicale en 1727. Membre de la Royal Society en 1712, il s’intéresse à la génération des plantes et à l’anatomie des végétaux. Il fait paraître plus de vingt publications entre 1716 à 1730 principalement consacrées à l’agriculture et l’horticulture.
+          <t>Carrière professionnelle</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bradley devient professeur de botanique à l’université de Cambridge en 1724 puis donne des cours de matière médicale en 1727. Membre de la Royal Society en 1712, il s’intéresse à la génération des plantes et à l’anatomie des végétaux. Il fait paraître plus de vingt publications entre 1716 à 1730 principalement consacrées à l’agriculture et l’horticulture.
 </t>
         </is>
       </c>
@@ -544,7 +560,9 @@
           <t>Principaux ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">A Treatise on Succulent Plants (1710).
 New Improvements of Planting and Gardening both Philosophical and Practical (1717, plusieurs fois réédité jusqu’en 1731 ; traduction française publiée en 1756).
